--- a/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
+++ b/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10200" windowHeight="3495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$44</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +316,20 @@
   <si>
     <t>内部测试/功能调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李伟涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+  </si>
+  <si>
+    <t>完成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
   </si>
 </sst>
 </file>
@@ -399,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,6 +431,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -720,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J44"/>
+  <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,9 +750,10 @@
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -764,8 +781,11 @@
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -787,8 +807,9 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -810,8 +831,9 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -833,8 +855,9 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -856,8 +879,9 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -879,8 +903,9 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -902,8 +927,9 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -925,8 +951,9 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -948,8 +975,9 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -967,8 +995,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -986,8 +1015,9 @@
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1005,8 +1035,9 @@
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1024,8 +1055,9 @@
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1043,8 +1075,9 @@
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1054,7 +1087,9 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1062,8 +1097,9 @@
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1121,9 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1145,9 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1119,7 +1157,9 @@
       <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>63</v>
       </c>
@@ -1131,8 +1171,9 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1154,8 +1195,9 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1177,8 +1219,9 @@
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1200,8 +1243,9 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1223,8 +1267,9 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1236,7 +1281,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G23" s="3">
         <v>42321</v>
@@ -1246,8 +1291,9 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1269,8 +1315,9 @@
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1292,8 +1339,9 @@
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1315,8 +1363,9 @@
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1338,8 +1387,9 @@
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1361,8 +1411,9 @@
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -1384,8 +1435,9 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1407,8 +1459,9 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="C31" s="2">
         <v>29</v>
@@ -1428,8 +1481,9 @@
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
       <c r="C32" s="2">
         <v>30</v>
@@ -1449,8 +1503,9 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="C33" s="2">
         <v>31</v>
@@ -1470,8 +1525,9 @@
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
       <c r="C34" s="2">
         <v>32</v>
@@ -1491,8 +1547,9 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
@@ -1510,8 +1567,9 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
       <c r="C36" s="2">
         <v>34</v>
@@ -1531,8 +1589,9 @@
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1548,8 +1607,9 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1557,7 +1617,9 @@
       <c r="D38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F38" s="2" t="s">
         <v>37</v>
       </c>
@@ -1565,8 +1627,12 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K38" s="2"/>
+      <c r="L38" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1582,8 +1648,9 @@
       <c r="H39" s="3"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1599,8 +1666,9 @@
       <c r="H40" s="3"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
@@ -1616,8 +1684,9 @@
       <c r="H41" s="3"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
@@ -1633,8 +1702,9 @@
       <c r="H42" s="3"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -1648,8 +1718,9 @@
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>74</v>
       </c>
@@ -1665,15 +1736,16 @@
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F43"/>
+  <autoFilter ref="F1:F44"/>
   <sortState ref="B2:J43">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E44">
       <formula1>"未开始,开发中,测试中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
+++ b/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10200" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,7 +1123,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1172,11 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L18" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1197,7 +1200,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1221,7 +1224,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1248,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1269,7 +1272,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1296,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1320,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1344,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1368,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1392,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1413,7 +1416,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -1437,7 +1440,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1461,7 +1464,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="C31" s="2">
         <v>29</v>
@@ -1483,7 +1486,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
       <c r="C32" s="2">
         <v>30</v>

--- a/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
+++ b/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="80">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,10 @@
   </si>
   <si>
     <t>已完成</t>
+  </si>
+  <si>
+    <t>要求完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -736,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L44"/>
+  <dimension ref="B1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -751,9 +755,10 @@
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="13" max="13" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -784,8 +789,12 @@
       <c r="K1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -809,7 +818,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -833,7 +842,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -857,7 +866,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -881,7 +890,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -905,7 +914,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -929,7 +938,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -953,7 +962,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -977,7 +986,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -997,7 +1006,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1026,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1037,7 +1046,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1057,7 +1066,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1077,7 +1086,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1099,7 +1108,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1123,7 +1132,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1156,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1172,11 +1181,12 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L18" s="2"/>
+      <c r="M18" s="3">
+        <v>42313</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1200,7 +1210,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1223,8 +1233,10 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1247,8 +1259,10 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1271,8 +1285,10 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L22" s="2"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1296,7 +1312,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1319,8 +1335,10 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L24" s="2"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1362,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1368,7 +1386,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1409,10 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L27" s="2"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +1436,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -1440,7 +1460,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1450,7 +1470,9 @@
       <c r="D30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1463,8 +1485,12 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L30" s="2"/>
+      <c r="M30" s="3">
+        <v>42313</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="C31" s="2">
         <v>29</v>
@@ -1485,8 +1511,10 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
       <c r="C32" s="2">
         <v>30</v>
@@ -1507,8 +1535,10 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="C33" s="2">
         <v>31</v>
@@ -1529,8 +1559,10 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
       <c r="C34" s="2">
         <v>32</v>
@@ -1551,8 +1583,10 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
@@ -1571,8 +1605,10 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
       <c r="C36" s="2">
         <v>34</v>
@@ -1593,8 +1629,10 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1612,7 +1650,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1635,7 +1673,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1653,7 +1691,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1671,7 +1709,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
@@ -1689,7 +1727,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
@@ -1707,7 +1745,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -1723,7 +1761,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>74</v>
       </c>

--- a/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
+++ b/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
@@ -740,10 +740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -817,6 +818,10 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3">
+        <v>42311</v>
+      </c>
     </row>
     <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -841,6 +846,8 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -865,6 +872,8 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -889,6 +898,8 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
@@ -913,6 +924,8 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
@@ -937,6 +950,8 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
@@ -961,6 +976,8 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
@@ -985,8 +1002,10 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1006,7 +1025,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1026,7 +1045,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1046,7 +1065,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1066,7 +1085,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1086,7 +1105,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1131,6 +1150,8 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
@@ -1155,8 +1176,10 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1182,7 +1205,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>42313</v>
       </c>
     </row>
@@ -1209,8 +1232,10 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1234,9 +1259,9 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1260,9 +1285,9 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1286,9 +1311,9 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1311,8 +1336,10 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1336,7 +1363,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="3"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
@@ -1361,6 +1388,8 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
@@ -1385,8 +1414,10 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1410,7 +1441,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="3"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
@@ -1435,6 +1466,8 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
@@ -1459,8 +1492,10 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1490,7 +1525,7 @@
         <v>42313</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="C31" s="2">
         <v>29</v>
@@ -1514,7 +1549,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
       <c r="C32" s="2">
         <v>30</v>
@@ -1538,7 +1573,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="C33" s="2">
         <v>31</v>
@@ -1562,7 +1597,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
       <c r="C34" s="2">
         <v>32</v>
@@ -1586,7 +1621,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
@@ -1608,7 +1643,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
       <c r="C36" s="2">
         <v>34</v>
@@ -1632,7 +1667,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1650,7 +1685,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1673,7 +1708,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1691,7 +1726,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1709,7 +1744,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
@@ -1727,7 +1762,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
@@ -1745,7 +1780,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -1761,7 +1796,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>74</v>
       </c>
@@ -1780,7 +1815,13 @@
       <c r="K44" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F44"/>
+  <autoFilter ref="F1:F44">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="施俊"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B2:J43">
     <sortCondition ref="C1"/>
   </sortState>

--- a/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
+++ b/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="5835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10080" windowHeight="2655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,6 +436,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -740,11 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,7 +1005,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1024,8 +1024,10 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1044,8 +1046,10 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1064,8 +1068,10 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1084,8 +1090,10 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1104,8 +1112,10 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1126,6 +1136,8 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
@@ -1151,7 +1163,9 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="M16" s="3">
+        <v>42317</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
@@ -1179,7 +1193,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1205,9 +1219,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2">
-        <v>42313</v>
-      </c>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
@@ -1235,7 +1247,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1261,7 +1273,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1287,7 +1299,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1313,7 +1325,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1339,7 +1351,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1429,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1495,7 +1507,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1522,10 +1534,10 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="3">
-        <v>42313</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>42317</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="C31" s="2">
         <v>29</v>
@@ -1549,7 +1561,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
       <c r="C32" s="2">
         <v>30</v>
@@ -1573,7 +1585,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="C33" s="2">
         <v>31</v>
@@ -1597,7 +1609,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
       <c r="C34" s="2">
         <v>32</v>
@@ -1621,7 +1633,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
@@ -1643,7 +1655,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
       <c r="C36" s="2">
         <v>34</v>
@@ -1667,7 +1679,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1685,7 +1697,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1708,7 +1720,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1726,7 +1738,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1744,7 +1756,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
@@ -1762,7 +1774,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
@@ -1780,7 +1792,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -1796,7 +1808,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:13" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>74</v>
       </c>
@@ -1815,13 +1827,7 @@
       <c r="K44" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F44">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="施俊"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="F1:F44"/>
   <sortState ref="B2:J43">
     <sortCondition ref="C1"/>
   </sortState>

--- a/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
+++ b/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10080" windowHeight="2655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,14 @@
   </si>
   <si>
     <t>要求完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成90%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,8 +443,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -743,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -756,7 +766,7 @@
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="13" max="13" width="18.875" customWidth="1"/>
+    <col min="12" max="12" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -790,8 +800,7 @@
       <c r="K1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -805,7 +814,9 @@
       <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
@@ -817,11 +828,10 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3">
-        <v>42311</v>
-      </c>
+      <c r="K2" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -833,7 +843,9 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
@@ -845,9 +857,10 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="K3" s="7">
+        <v>0.9</v>
+      </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -859,7 +872,9 @@
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
@@ -871,9 +886,10 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="7">
+        <v>0.9</v>
+      </c>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
@@ -885,7 +901,9 @@
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
@@ -897,9 +915,10 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="7">
+        <v>0.9</v>
+      </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
@@ -911,7 +930,9 @@
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
@@ -923,9 +944,10 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="7">
+        <v>0.9</v>
+      </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
@@ -937,7 +959,9 @@
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
@@ -949,9 +973,10 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="7">
+        <v>0.9</v>
+      </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
@@ -963,7 +988,9 @@
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
@@ -975,9 +1002,10 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="7">
+        <v>0.9</v>
+      </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
@@ -989,7 +1017,9 @@
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1001,9 +1031,10 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="7">
+        <v>0.9</v>
+      </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
@@ -1015,7 +1046,9 @@
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1023,9 +1056,10 @@
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="K10" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
@@ -1046,8 +1080,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
@@ -1068,8 +1101,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
@@ -1090,8 +1122,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
@@ -1112,8 +1143,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
@@ -1136,8 +1166,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
@@ -1162,8 +1191,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3">
+      <c r="L16" s="3">
         <v>42317</v>
       </c>
     </row>
@@ -1191,7 +1219,6 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
@@ -1219,7 +1246,6 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
@@ -1245,7 +1271,6 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
@@ -1271,7 +1296,6 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
@@ -1297,7 +1321,6 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
@@ -1323,7 +1346,6 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
@@ -1335,21 +1357,20 @@
       <c r="D23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="3">
-        <v>42321</v>
-      </c>
-      <c r="H23" s="3">
-        <v>42324</v>
-      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="7">
+        <v>0.5</v>
+      </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
@@ -1375,7 +1396,6 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
@@ -1401,7 +1421,6 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
@@ -1427,7 +1446,6 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
@@ -1453,7 +1471,6 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
@@ -1479,7 +1496,6 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
@@ -1505,7 +1521,6 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
     </row>
     <row r="30" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
@@ -1532,8 +1547,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="3">
+      <c r="L30" s="3">
         <v>42317</v>
       </c>
     </row>
@@ -1559,7 +1573,6 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
     </row>
     <row r="32" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
@@ -1583,7 +1596,6 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
     </row>
     <row r="33" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
@@ -1607,7 +1619,6 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
     </row>
     <row r="34" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
@@ -1631,7 +1642,6 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
     </row>
     <row r="35" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
@@ -1643,7 +1653,9 @@
       <c r="D35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F35" s="2" t="s">
         <v>61</v>
       </c>
@@ -1653,7 +1665,6 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
     </row>
     <row r="36" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
@@ -1677,7 +1688,6 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
     </row>
     <row r="37" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
@@ -1687,7 +1697,9 @@
       <c r="D37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1695,7 +1707,9 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="38" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
@@ -1706,7 +1720,7 @@
         <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>37</v>
@@ -1715,9 +1729,8 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="6">
-        <v>0.9</v>
+      <c r="K38" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">

--- a/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
+++ b/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1178,7 +1178,9 @@
       <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>62</v>
       </c>

--- a/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
+++ b/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="5835"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15135" windowHeight="1770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,169 +178,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>转储确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸箱收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半成品巡检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量问题单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工模维修单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺维修单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备维修单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP ABAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABAP 函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李伟涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈为聚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈为聚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈为聚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部质量问题单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015/11/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李伟涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部测试/功能调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李伟涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+  </si>
+  <si>
+    <t>完成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>要求完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>领退料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>转储确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报废</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返修收货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸箱收货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽检</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡检</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半成品巡检</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量问题单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工模维修单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工艺维修单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备维修单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAP ABAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABAP 函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李伟涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈为聚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈为聚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈为聚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部质量问题单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1015/11/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李伟涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部测试/功能调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李伟涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-  </si>
-  <si>
-    <t>完成比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>要求完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成60%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成90%</t>
+    <t>高云飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201511/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高云飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成40%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M44"/>
+  <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -769,7 +781,7 @@
     <col min="12" max="12" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -798,13 +810,13 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -815,7 +827,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
@@ -827,13 +839,13 @@
         <v>42305</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="J2" s="2">
+        <v>20151113</v>
+      </c>
+      <c r="K2" s="7"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -844,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>26</v>
@@ -856,13 +868,13 @@
         <v>42305</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="J3" s="2">
+        <v>20151114</v>
+      </c>
+      <c r="K3" s="7"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -873,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
@@ -885,13 +897,13 @@
         <v>42305</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="J4" s="2">
+        <v>20151115</v>
+      </c>
+      <c r="K4" s="7"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -902,7 +914,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>26</v>
@@ -914,13 +926,13 @@
         <v>42305</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="J5" s="2">
+        <v>20151116</v>
+      </c>
+      <c r="K5" s="7"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -931,7 +943,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>26</v>
@@ -943,13 +955,13 @@
         <v>42305</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="J6" s="2">
+        <v>20151117</v>
+      </c>
+      <c r="K6" s="7"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -960,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>26</v>
@@ -972,13 +984,13 @@
         <v>42305</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="J7" s="2">
+        <v>20151118</v>
+      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -989,7 +1001,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>26</v>
@@ -1001,13 +1013,13 @@
         <v>42305</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="J8" s="2">
+        <v>20151119</v>
+      </c>
+      <c r="K8" s="7"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
@@ -1030,13 +1042,13 @@
         <v>42305</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="J9" s="2">
+        <v>20151120</v>
+      </c>
+      <c r="K9" s="7"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1047,7 +1059,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
@@ -1056,12 +1068,10 @@
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="7">
-        <v>0.8</v>
-      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1071,7 +1081,9 @@
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1082,7 +1094,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1115,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1125,9 @@
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1124,7 +1138,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1134,7 +1148,9 @@
       <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1145,7 +1161,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1172,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
@@ -1168,7 +1184,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1176,13 +1192,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G16" s="3">
         <v>42313</v>
@@ -1192,12 +1208,12 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3">
-        <v>42317</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K16" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1222,7 +1238,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1230,13 +1246,13 @@
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G18" s="3">
         <v>42306</v>
@@ -1246,10 +1262,12 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="7">
+        <v>0.8</v>
+      </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1257,24 +1275,24 @@
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="3">
-        <v>42314</v>
+        <v>80</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H19" s="3">
-        <v>42320</v>
+        <v>42332</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1282,11 +1300,11 @@
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G20" s="3">
         <v>42307</v>
@@ -1299,7 +1317,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1307,11 +1325,11 @@
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G21" s="3">
         <v>42317</v>
@@ -1324,7 +1342,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1332,11 +1350,11 @@
         <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G22" s="3">
         <v>42318</v>
@@ -1349,7 +1367,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1357,13 +1375,13 @@
         <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1374,7 +1392,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1382,11 +1400,13 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G24" s="3">
         <v>42325</v>
@@ -1396,10 +1416,12 @@
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="7">
+        <v>0.6</v>
+      </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1407,24 +1429,24 @@
         <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G25" s="3">
-        <v>42321</v>
+        <v>42333</v>
       </c>
       <c r="H25" s="3">
-        <v>42324</v>
+        <v>42341</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1432,11 +1454,11 @@
         <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G26" s="3">
         <v>42325</v>
@@ -1449,7 +1471,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1457,24 +1479,26 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G27" s="3">
-        <v>42327</v>
+        <v>42324</v>
       </c>
       <c r="H27" s="3">
-        <v>42328</v>
+        <v>42326</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1482,11 +1506,11 @@
         <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G28" s="3">
         <v>42327</v>
@@ -1499,7 +1523,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -1507,11 +1531,11 @@
         <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G29" s="3">
         <v>42328</v>
@@ -1524,7 +1548,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1532,13 +1556,13 @@
         <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" s="3">
         <v>42304</v>
@@ -1549,21 +1573,21 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="3">
-        <v>42317</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="C31" s="2">
         <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" s="3">
         <v>42307</v>
@@ -1573,20 +1597,24 @@
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="K31" s="7">
+        <v>0.7</v>
+      </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
       <c r="C32" s="2">
         <v>30</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="3">
         <v>42312</v>
@@ -1596,20 +1624,24 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="K32" s="7">
+        <v>0.7</v>
+      </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="C33" s="2">
         <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G33" s="3">
         <v>42314</v>
@@ -1619,20 +1651,24 @@
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="7">
+        <v>0.7</v>
+      </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
       <c r="C34" s="2">
         <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G34" s="3">
         <v>42318</v>
@@ -1642,24 +1678,26 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="K34" s="7">
+        <v>0.7</v>
+      </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="2">
         <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1668,30 +1706,30 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
       <c r="C36" s="2">
         <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G36" s="3">
         <v>42320</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1700,7 +1738,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>37</v>
@@ -1710,10 +1748,10 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1722,7 +1760,7 @@
         <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>37</v>
@@ -1732,10 +1770,10 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1753,7 +1791,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1771,7 +1809,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
@@ -1789,7 +1827,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
@@ -1807,25 +1845,29 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="2:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K43" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>

--- a/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
+++ b/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="15135" windowHeight="1770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15135" windowHeight="1770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$44</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1015/11/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>权限管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>201511/19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高云飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,6 +344,14 @@
   </si>
   <si>
     <t>完成40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李伟涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施俊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -810,10 +809,10 @@
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -827,21 +826,15 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3">
-        <v>42304</v>
-      </c>
-      <c r="H2" s="3">
-        <v>42305</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2">
-        <v>20151113</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="7"/>
       <c r="L2" s="3"/>
     </row>
@@ -856,21 +849,15 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3">
-        <v>42304</v>
-      </c>
-      <c r="H3" s="3">
-        <v>42305</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2">
-        <v>20151114</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="7"/>
       <c r="L3" s="2"/>
     </row>
@@ -885,21 +872,15 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3">
-        <v>42304</v>
-      </c>
-      <c r="H4" s="3">
-        <v>42305</v>
-      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2">
-        <v>20151115</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="7"/>
       <c r="L4" s="2"/>
     </row>
@@ -914,21 +895,15 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="3">
-        <v>42304</v>
-      </c>
-      <c r="H5" s="3">
-        <v>42305</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2">
-        <v>20151116</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="7"/>
       <c r="L5" s="2"/>
     </row>
@@ -943,21 +918,15 @@
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3">
-        <v>42304</v>
-      </c>
-      <c r="H6" s="3">
-        <v>42305</v>
-      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2">
-        <v>20151117</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="7"/>
       <c r="L6" s="2"/>
     </row>
@@ -972,21 +941,15 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="3">
-        <v>42304</v>
-      </c>
-      <c r="H7" s="3">
-        <v>42305</v>
-      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>20151118</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="7"/>
       <c r="L7" s="2"/>
     </row>
@@ -1001,21 +964,15 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="3">
-        <v>42304</v>
-      </c>
-      <c r="H8" s="3">
-        <v>42305</v>
-      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>20151119</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="7"/>
       <c r="L8" s="2"/>
     </row>
@@ -1030,21 +987,15 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="3">
-        <v>42304</v>
-      </c>
-      <c r="H9" s="3">
-        <v>42305</v>
-      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>20151120</v>
-      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="7"/>
       <c r="L9" s="2"/>
     </row>
@@ -1059,7 +1010,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
@@ -1082,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>28</v>
@@ -1106,7 +1057,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1126,7 +1077,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>28</v>
@@ -1149,7 +1100,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>28</v>
@@ -1172,7 +1123,7 @@
         <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
@@ -1192,25 +1143,21 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="3">
-        <v>42313</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <v>42313</v>
+        <v>42333</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="7">
-        <v>0.3</v>
-      </c>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1225,14 +1172,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="3">
-        <v>42306</v>
-      </c>
-      <c r="H17" s="3">
-        <v>42312</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1249,16 +1192,14 @@
         <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="3">
-        <v>42306</v>
-      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>42306</v>
+        <v>42335</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1279,13 +1220,11 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <v>42332</v>
+        <v>42335</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1306,11 +1245,9 @@
       <c r="F20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="3">
-        <v>42307</v>
-      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <v>42313</v>
+        <v>42332</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1325,17 +1262,15 @@
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="3">
-        <v>42317</v>
-      </c>
+      <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <v>42317</v>
+        <v>42328</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1352,16 +1287,14 @@
       <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="3">
-        <v>42318</v>
-      </c>
-      <c r="H22" s="3">
-        <v>42320</v>
-      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1378,10 +1311,10 @@
         <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1403,17 +1336,13 @@
         <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="3">
-        <v>42325</v>
-      </c>
-      <c r="H24" s="3">
-        <v>42326</v>
-      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="7">
@@ -1433,13 +1362,11 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="3">
-        <v>42333</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <v>42341</v>
+        <v>42342</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1460,11 +1387,9 @@
       <c r="F26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="3">
-        <v>42325</v>
-      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <v>42326</v>
+        <v>42328</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1482,16 +1407,14 @@
         <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="3">
-        <v>42324</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <v>42326</v>
+        <v>42349</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1512,11 +1435,9 @@
       <c r="F28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="3">
-        <v>42327</v>
-      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>42327</v>
+        <v>42342</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1537,11 +1458,9 @@
       <c r="F29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="3">
-        <v>42328</v>
-      </c>
+      <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <v>42331</v>
+        <v>42340</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1559,16 +1478,14 @@
         <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="3">
-        <v>42304</v>
-      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <v>42307</v>
+        <v>42328</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1584,16 +1501,14 @@
         <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="3">
-        <v>42307</v>
-      </c>
+      <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <v>42311</v>
+        <v>42332</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1611,16 +1526,14 @@
         <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="3">
-        <v>42312</v>
-      </c>
+      <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <v>42313</v>
+        <v>42334</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1638,16 +1551,14 @@
         <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="3">
-        <v>42314</v>
-      </c>
+      <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <v>42317</v>
+        <v>42338</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1665,16 +1576,14 @@
         <v>54</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="3">
-        <v>42318</v>
-      </c>
+      <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <v>42319</v>
+        <v>42340</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -1694,7 +1603,7 @@
         <v>58</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>59</v>
@@ -1718,12 +1627,8 @@
       <c r="F36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="3">
-        <v>42320</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1738,7 +1643,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>37</v>
@@ -1748,7 +1653,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1760,7 +1665,7 @@
         <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>37</v>
@@ -1770,7 +1675,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1783,7 +1688,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1801,7 +1706,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1849,25 +1754,25 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>

--- a/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
+++ b/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15135" windowHeight="1770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$44</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -762,10 +763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -815,7 +817,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -838,7 +840,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -861,7 +863,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -884,7 +886,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -907,7 +909,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -930,7 +932,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -953,7 +955,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -976,7 +978,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -999,7 +1001,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1022,7 +1024,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +1047,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1066,7 +1068,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +1091,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1112,7 +1114,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1137,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1162,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1208,7 +1210,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1300,7 +1302,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1352,7 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1373,7 +1375,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1396,7 +1398,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1421,7 +1423,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1444,7 +1446,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1469,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +1494,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
       <c r="C31" s="2">
         <v>29</v>
@@ -1517,7 +1519,7 @@
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
       <c r="C32" s="2">
         <v>30</v>
@@ -1542,7 +1544,7 @@
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="C33" s="2">
         <v>31</v>
@@ -1567,7 +1569,7 @@
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
       <c r="C34" s="2">
         <v>32</v>
@@ -1592,7 +1594,7 @@
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
@@ -1615,7 +1617,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
       <c r="C36" s="2">
         <v>34</v>
@@ -1634,7 +1636,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1656,7 +1658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1678,7 +1680,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1698,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1714,7 +1716,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
@@ -1732,7 +1734,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
@@ -1750,7 +1752,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -1770,7 +1772,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>70</v>
       </c>
@@ -1789,7 +1791,13 @@
       <c r="K44" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F44"/>
+  <autoFilter ref="F1:F44">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="陈为聚"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B2:J43">
     <sortCondition ref="C1"/>
   </sortState>

--- a/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
+++ b/deploy/开发计划/KB/KB项目工作任务分解表 (内控进度).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="5835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7872"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -767,22 +767,22 @@
   <dimension ref="B1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="7" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -817,7 +817,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -840,7 +840,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -909,7 +909,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1162,7 +1162,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2">
         <v>29</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2">
         <v>30</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2">
         <v>31</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2">
         <v>32</v>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2">
         <v>34</v>
@@ -1636,7 +1636,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -1772,7 +1772,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>70</v>
       </c>
@@ -1794,7 +1794,7 @@
   <autoFilter ref="F1:F44">
     <filterColumn colId="0">
       <filters>
-        <filter val="陈为聚"/>
+        <filter val="施俊"/>
       </filters>
     </filterColumn>
   </autoFilter>
